--- a/amostras-Nagata-pos-doc.xlsx
+++ b/amostras-Nagata-pos-doc.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Pressão (MPa)</t>
-  </si>
-  <si>
     <t>Raio de garganta (μm)</t>
   </si>
   <si>
@@ -27,12 +24,15 @@
   <si>
     <t>Intrusão Incremental (ml/g)</t>
   </si>
+  <si>
+    <t>Pressao-Mpa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +43,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,9 +114,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -119,6 +124,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,739 +426,742 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.2470101000000001E-2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>50</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1.3986515E-2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44.579015630000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2.3354499999999999E-4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2.3354499999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2.0892032000000001E-2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>29.844156250000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.369765E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1.136221E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>2.7806759E-2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>22.422789059999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2.4970399999999998E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1.1272739999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3.8172615E-2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>16.333832810000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.4095950000000001E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>9.1255500000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>4.1626456999999999E-2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>14.97857656</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3.6958870000000001E-3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2.86292E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>5.1971192999999999E-2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>11.99712813</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>4.8142139999999998E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.1183269999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>5.8878877000000003E-2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>10.58962266</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>5.2436519999999997E-3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>4.2943799999999998E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>7.2629787000000001E-2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8.5847023440000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>5.7088759999999999E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>4.6522499999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8.9876253000000003E-2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>6.937372656</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>6.1383139999999997E-3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>4.2943700000000002E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>0.110450907</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5.6450878910000002</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>6.5766979999999997E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>4.3838500000000001E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>0.13796356300000001</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>4.5193460940000003</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>7.0150819999999997E-3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>4.38384E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>0.17230267199999999</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3.6186617189999999</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>7.3103209999999998E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.9523800000000002E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>0.199537769</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3.124747266</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>7.2698770000000001E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-4.0443900000000001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>0.26216007400000002</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2.3783373050000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>7.278713E-3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>8.8368899999999993E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>0.34002634700000001</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1.8336962889999999</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>7.285461E-3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>6.7473300000000002E-6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>0.40533285499999999</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.5382544920000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>7.3185309999999996E-3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>3.30697E-5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>0.50613056499999998</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1.231905566</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>7.4540459999999998E-3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1.3551500000000001E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>0.60960625899999998</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1.0227997069999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>7.5355800000000001E-3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>8.1534300000000003E-5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>0.78603033499999997</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0.79323286100000001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>7.6326989999999997E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>9.7119499999999997E-5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>0.95564019</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.65244751000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>7.728899E-3</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>9.61997E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>1.195960387</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>0.52134257799999995</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>7.8177669999999998E-3</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>8.8867499999999996E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>1.506416347</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.41389956100000003</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>7.9021209999999998E-3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>8.4355000000000001E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>1.85804401</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>0.33557067899999998</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>8.001434E-3</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>9.9312200000000001E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>2.268878146</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.27480766600000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>8.0575660000000004E-3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>5.6132199999999998E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>2.8814720880000002</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.21638422900000001</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>8.1358630000000001E-3</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>7.8296300000000005E-5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>3.5817639799999998</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.17407766099999999</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>8.2034640000000006E-3</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>6.7600800000000005E-5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>4.4016963599999999</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>0.14165108600000001</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>8.2973439999999999E-3</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>9.3880600000000004E-5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>5.5036547689999997</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.11328928200000001</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>8.3855639999999999E-3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>8.8220799999999994E-5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>6.8167200829999999</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>9.1467022999999995E-2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>8.5140609999999999E-3</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>1.28496E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>8.2497711710000008</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>7.5578466999999996E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>8.6535229999999998E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>1.3946299999999999E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>10.33073626</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>6.0354369999999997E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>8.7727029999999998E-3</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>1.1917999999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>13.078709330000001</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>4.7673288000000001E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>8.9651230000000002E-3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>1.9242E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>16.189143609999999</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>3.8513778999999998E-2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>9.1555999999999998E-3</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>1.9047700000000001E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>19.978224990000001</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>3.1209232E-2</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>9.3619759999999993E-3</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>2.06376E-4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>24.805253459999999</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>2.5136009000000001E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>9.6571560000000001E-3</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>2.9517900000000001E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>30.98417611</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>2.0123338000000001E-2</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>9.9437499999999995E-3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>2.8659399999999999E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>38.5793502</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>1.6161627000000001E-2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1.0276657E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>3.3290700000000002E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>47.540750009999996</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>1.3115172E-2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>1.0669728999999999E-2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>3.9307200000000001E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>59.262254370000001</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1.0521117E-2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>1.1193134E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>5.2340500000000001E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>73.040113270000006</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>8.536475E-3</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>1.180286E-2</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>6.09726E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>90.972675969999997</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>6.8537620000000002E-3</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>1.2552361E-2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>7.4950099999999996E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>102.01630590000001</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>6.1118179999999998E-3</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>1.3172885E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>6.2052500000000003E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>113.0330637</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>5.5161300000000002E-3</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>1.3762597E-2</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>5.8971100000000003E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>137.84985280000001</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>4.5230740000000002E-3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>1.5262728999999999E-2</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>1.5001319999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>172.26509970000001</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>3.6194510000000001E-3</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>1.882847E-2</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>3.56574E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>206.67807070000001</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>3.0167940000000002E-3</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>2.2860859000000001E-2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>4.0323879999999996E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>241.15193650000001</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>2.5855280000000001E-3</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>2.6260648000000001E-2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>3.3997889999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>275.63350509999998</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>2.2620800000000001E-3</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>2.8688117999999999E-2</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>2.4274700000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>310.0580033</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>2.0109300000000002E-3</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>3.0314574E-2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>1.626457E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>344.26138459999999</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>1.811139E-3</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>3.1553928000000002E-2</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>1.239354E-3</v>
       </c>
     </row>

--- a/amostras-Nagata-pos-doc.xlsx
+++ b/amostras-Nagata-pos-doc.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Pressão (MPa)</t>
+  </si>
+  <si>
     <t>Raio de garganta (μm)</t>
   </si>
   <si>
@@ -23,9 +26,6 @@
   </si>
   <si>
     <t>Intrusão Incremental (ml/g)</t>
-  </si>
-  <si>
-    <t>Pressao-Mpa</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:D1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,16 +439,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">

--- a/amostras-Nagata-pos-doc.xlsx
+++ b/amostras-Nagata-pos-doc.xlsx
@@ -425,9 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
